--- a/arthi.xlsx
+++ b/arthi.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>aafaf</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t>afaaa</t>
+  </si>
+  <si>
+    <t>dvvvDV</t>
   </si>
 </sst>
 </file>
@@ -340,7 +343,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -348,15 +351,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -368,6 +371,9 @@
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
